--- a/biology/Botanique/Flore_du_Tchad/Flore_du_Tchad.xlsx
+++ b/biology/Botanique/Flore_du_Tchad/Flore_du_Tchad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flore sauvage du Tchad.
 Sommaire :
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acacia albida
 Acacia nilotica
@@ -577,7 +591,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Balanites aegyptiaca
 Bauhinia rufescens
@@ -609,7 +625,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ctenium newtonii Hackel var. annuum Lebrun
 Combretum acuelatum
@@ -642,7 +660,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Diplotaxis acris Boiss. var. tibestica Chevassut &amp; Quezel</t>
         </is>
@@ -672,7 +692,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Erodium oreophilum Quezel</t>
         </is>
@@ -702,7 +724,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Khaya senegalensis
 Kickxia aegyptiaca (L.) Nab. ssp. tibestica Wick.</t>
@@ -733,7 +757,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pluchea lanceolata (DC.) Oliver &amp; Hiern
 Polygala murati J. Felix ssp. murati
